--- a/Exports/ErrorSummary.xlsx
+++ b/Exports/ErrorSummary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">FilePath</t>
   </si>
@@ -75,42 +75,27 @@
     <t xml:space="preserve">moisture_var</t>
   </si>
   <si>
-    <t xml:space="preserve">Product_Export_From_20210122_0800_To_20210122_1434.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIF 6</t>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N18-1586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jay Test 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osage</t>
   </si>
   <si>
     <t xml:space="preserve">CLA</t>
   </si>
   <si>
-    <t xml:space="preserve">RM19-2678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIR-02549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM19-2691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIR-02562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM19-2749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIR-02599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM19-2752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIR-02607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
     <t xml:space="preserve">N19-0096</t>
   </si>
   <si>
@@ -139,15 +124,6 @@
   </si>
   <si>
     <t xml:space="preserve">N19-1390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N18-1292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LU 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAS</t>
   </si>
   <si>
     <t xml:space="preserve">V14-3508 (4L)</t>
@@ -161,18 +137,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,9 +166,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -207,8 +177,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:T9" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:T9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:T2" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:T2"/>
   <tableColumns count="20">
     <tableColumn id="1" name="FilePath"/>
     <tableColumn id="2" name="Date"/>
@@ -236,8 +206,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D14" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:D14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D11" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:D11"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Genotype"/>
     <tableColumn id="2" name="Test"/>
@@ -599,496 +569,62 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>44218</v>
+      <c r="B2" t="s">
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2020</v>
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.61</v>
-      </c>
-      <c r="L2" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="M2" t="n">
-        <v>67.65</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.839</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.283</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44218</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="n">
-        <v>46.63</v>
-      </c>
-      <c r="L3" t="n">
-        <v>20.99</v>
-      </c>
-      <c r="M3" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.839</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.283</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44218</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="n">
-        <v>48.93</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19.63</v>
-      </c>
-      <c r="M4" t="n">
-        <v>68.56</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.828</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.076</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44218</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" t="n">
-        <v>49.68</v>
-      </c>
-      <c r="L5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>69.18</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.828</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.076</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44218</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="n">
-        <v>18</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>67</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="n">
-        <v>49.25</v>
-      </c>
-      <c r="L6" t="n">
-        <v>20.31</v>
-      </c>
-      <c r="M6" t="n">
-        <v>69.56</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.534</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.253</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44218</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="n">
-        <v>18</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>67</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="n">
-        <v>49.36</v>
-      </c>
-      <c r="L7" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="M7" t="n">
-        <v>69.71</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.534</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.253</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44218</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="n">
-        <v>21</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" t="n">
-        <v>45.14</v>
-      </c>
-      <c r="L8" t="n">
-        <v>20.12</v>
-      </c>
-      <c r="M8" t="n">
-        <v>65.26</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.208</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.578</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.076</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44218</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="n">
-        <v>21</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" t="n">
-        <v>45.27</v>
-      </c>
-      <c r="L9" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="M9" t="n">
-        <v>65.66</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.208</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.578</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.076</v>
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1119,21 +655,21 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1141,13 +677,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1155,13 +691,13 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1169,13 +705,13 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1183,10 +719,10 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -1194,13 +730,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -1208,13 +744,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -1222,13 +758,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -1236,13 +772,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -1250,58 +786,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Exports/ErrorSummary.xlsx
+++ b/Exports/ErrorSummary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">FilePath</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t xml:space="preserve">NIR_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO13</t>
   </si>
   <si>
     <t xml:space="preserve">protein_dry_basis</t>
@@ -177,9 +186,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:T2" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:T2"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:W2" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:W2"/>
+  <tableColumns count="23">
     <tableColumn id="1" name="FilePath"/>
     <tableColumn id="2" name="Date"/>
     <tableColumn id="3" name="Test"/>
@@ -190,16 +199,19 @@
     <tableColumn id="8" name="Rep"/>
     <tableColumn id="9" name="Plot"/>
     <tableColumn id="10" name="NIR_Number"/>
-    <tableColumn id="11" name="protein_dry_basis"/>
-    <tableColumn id="12" name="oil_dry_basis"/>
-    <tableColumn id="13" name="protein_plus_oil"/>
-    <tableColumn id="14" name="moisture"/>
-    <tableColumn id="15" name="oil_outlier"/>
-    <tableColumn id="16" name="protein_outlier"/>
-    <tableColumn id="17" name="moisture_outlier"/>
-    <tableColumn id="18" name="oil_var"/>
-    <tableColumn id="19" name="protein_var"/>
-    <tableColumn id="20" name="moisture_var"/>
+    <tableColumn id="11" name="Pro13"/>
+    <tableColumn id="12" name="Oil13"/>
+    <tableColumn id="13" name="PO13"/>
+    <tableColumn id="14" name="protein_dry_basis"/>
+    <tableColumn id="15" name="oil_dry_basis"/>
+    <tableColumn id="16" name="protein_plus_oil"/>
+    <tableColumn id="17" name="moisture"/>
+    <tableColumn id="18" name="oil_outlier"/>
+    <tableColumn id="19" name="protein_outlier"/>
+    <tableColumn id="20" name="moisture_outlier"/>
+    <tableColumn id="21" name="oil_var"/>
+    <tableColumn id="22" name="protein_var"/>
+    <tableColumn id="23" name="moisture_var"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -564,67 +576,85 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T2" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="U2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -655,18 +685,18 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -674,13 +704,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
@@ -688,13 +718,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -702,13 +732,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -716,13 +746,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -730,13 +760,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
@@ -744,13 +774,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
@@ -758,13 +788,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -772,13 +802,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
@@ -786,13 +816,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
